--- a/Resource/excel/框架-条件定义.xlsx
+++ b/Resource/excel/框架-条件定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13140" tabRatio="710"/>
+    <workbookView windowWidth="26340" windowHeight="13140" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="conditiondefine" sheetId="14" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1">
+    <comment ref="J4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1">
+    <comment ref="K4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="M4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>*dark_config</t>
   </si>
@@ -273,6 +273,9 @@
     <t>初始值</t>
   </si>
   <si>
+    <t>是否保存uuid</t>
+  </si>
+  <si>
     <t>触发条件</t>
   </si>
   <si>
@@ -315,6 +318,9 @@
     <t>InitCalc(string)</t>
   </si>
   <si>
+    <t>SaveUUid(int)</t>
+  </si>
+  <si>
     <t>TriggerType(int)</t>
   </si>
   <si>
@@ -334,6 +340,102 @@
   </si>
   <si>
     <t>UseValue(int)</t>
+  </si>
+  <si>
+    <t>costmoney</t>
+  </si>
+  <si>
+    <t>消耗金币数量(接任务开始计数)</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>costdiamond</t>
+  </si>
+  <si>
+    <t>消耗钻石数量(接任务开始计数)</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>totalsignin</t>
+  </si>
+  <si>
+    <t>累计登陆天数</t>
+  </si>
+  <si>
+    <t>无限制条件</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>continuoussignin</t>
+  </si>
+  <si>
+    <t>连续登陆天数</t>
+  </si>
+  <si>
+    <t>victory</t>
+  </si>
+  <si>
+    <t>累计胜利次数(第一名)</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>killcount</t>
+  </si>
+  <si>
+    <t>击杀累计</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ownhero</t>
+  </si>
+  <si>
+    <t>拥有英雄数量</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>ownexp</t>
+  </si>
+  <si>
+    <t>拥有总经验</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>owngrade</t>
+  </si>
+  <si>
+    <t>达到段位积分</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>grade</t>
   </si>
 </sst>
 </file>
@@ -341,17 +443,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -360,26 +481,85 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -393,6 +573,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -401,42 +588,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,82 +596,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -529,6 +604,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -540,7 +636,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,19 +669,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,19 +825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,25 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,97 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,65 +900,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -865,6 +920,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -879,188 +984,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1489,183 +1625,587 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="3"/>
-    <col min="2" max="2" width="57.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="3"/>
-    <col min="5" max="5" width="15.5" style="3"/>
-    <col min="6" max="6" width="14.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="20.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="57.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="9"/>
+    <col min="5" max="5" width="18.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="9" customWidth="1"/>
+    <col min="11" max="12" width="19.375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="9" customWidth="1"/>
+    <col min="15" max="15" width="15" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11">
-        <v>1</v>
-      </c>
-      <c r="L3" s="11">
-        <v>1</v>
-      </c>
-      <c r="M3" s="11">
-        <v>1</v>
-      </c>
-      <c r="N3" s="8">
+    <row r="3" s="3" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13">
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:14">
-      <c r="A4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="4" s="4" customFormat="1" ht="128" customHeight="1" spans="1:15">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="M4" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>3</v>
+      </c>
+      <c r="N7" s="6">
+        <v>2</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>3</v>
+      </c>
+      <c r="N8" s="6">
+        <v>2</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="7" customFormat="1" spans="1:15">
+      <c r="A9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="7">
+        <v>13</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="1:15">
+      <c r="A10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+      <c r="N12" s="5">
+        <v>2</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3</v>
+      </c>
+      <c r="N13" s="5">
+        <v>2</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:A65482">
+  <conditionalFormatting sqref="A10">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9 A14:A65425">
+    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Resource/excel/框架-条件定义.xlsx
+++ b/Resource/excel/框架-条件定义.xlsx
@@ -1628,7 +1628,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Resource/excel/框架-条件定义.xlsx
+++ b/Resource/excel/框架-条件定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13140" tabRatio="710"/>
+    <workbookView windowWidth="26310" windowHeight="13140" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="conditiondefine" sheetId="14" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>*dark_config</t>
   </si>
@@ -342,30 +342,45 @@
     <t>UseValue(int)</t>
   </si>
   <si>
+    <t>addmoney</t>
+  </si>
+  <si>
+    <t>获得金币数量</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>costmoney</t>
   </si>
   <si>
     <t>消耗金币数量(接任务开始计数)</t>
   </si>
   <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>adddiamond</t>
+  </si>
+  <si>
+    <t>获得钻石数量</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
     <t>costdiamond</t>
   </si>
   <si>
     <t>消耗钻石数量(接任务开始计数)</t>
   </si>
   <si>
-    <t>diamond</t>
-  </si>
-  <si>
     <t>totalsignin</t>
   </si>
   <si>
@@ -405,9 +420,6 @@
     <t>kill</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>ownhero</t>
   </si>
   <si>
@@ -417,6 +429,24 @@
     <t>hero</t>
   </si>
   <si>
+    <t>owneffect</t>
+  </si>
+  <si>
+    <t>拥有特效数量</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>ownfoot</t>
+  </si>
+  <si>
+    <t>拥有脚印数量</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
     <t>ownexp</t>
   </si>
   <si>
@@ -436,6 +466,18 @@
   </si>
   <si>
     <t>grade</t>
+  </si>
+  <si>
+    <t>ownachieve</t>
+  </si>
+  <si>
+    <t>拥有成就数量</t>
+  </si>
+  <si>
+    <t>achieve</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -443,12 +485,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -475,10 +517,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -488,6 +566,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -503,6 +597,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -512,38 +637,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,55 +660,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,13 +674,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -636,7 +685,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,25 +742,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,151 +838,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,7 +943,72 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,71 +1031,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1001,10 +1044,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1013,137 +1056,137 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,6 +1205,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1171,10 +1217,10 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1185,6 +1231,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1625,29 +1674,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="57.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="9"/>
-    <col min="5" max="5" width="18.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="9" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="9" customWidth="1"/>
-    <col min="11" max="12" width="19.375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="13.75" style="9" customWidth="1"/>
-    <col min="15" max="15" width="15" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="20.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="57.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="10"/>
+    <col min="5" max="5" width="18.25" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="10" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="10" customWidth="1"/>
+    <col min="11" max="12" width="19.375" style="10" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="10" customWidth="1"/>
+    <col min="15" max="15" width="15" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="13.5" spans="1:11">
@@ -1660,14 +1709,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="13.5" spans="1:15">
       <c r="A2" s="2" t="s">
@@ -1750,13 +1794,13 @@
       <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="13">
-        <v>1</v>
-      </c>
-      <c r="M3" s="13">
-        <v>1</v>
-      </c>
-      <c r="N3" s="13">
+      <c r="L3" s="14">
+        <v>1</v>
+      </c>
+      <c r="M3" s="14">
+        <v>1</v>
+      </c>
+      <c r="N3" s="14">
         <v>1</v>
       </c>
       <c r="O3" s="3">
@@ -1829,7 +1873,7 @@
       <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="5">
@@ -1851,121 +1895,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="6" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="5">
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="5">
         <v>3</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="6">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>3</v>
-      </c>
-      <c r="N7" s="6">
-        <v>2</v>
-      </c>
-      <c r="O7" s="6">
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="13.5" spans="1:15">
       <c r="A8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="6">
         <v>3</v>
       </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
       <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>44</v>
+      <c r="I8" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
@@ -1977,79 +2009,89 @@
         <v>0</v>
       </c>
       <c r="M8" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:15">
+    <row r="9" s="7" customFormat="1" ht="13.5" spans="1:15">
       <c r="A9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7">
         <v>3</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="7" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="7">
-        <v>13</v>
-      </c>
-      <c r="K9" s="7">
-        <v>2</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" s="7" customFormat="1" spans="1:15">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>52</v>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7">
         <v>3</v>
       </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>54</v>
+      <c r="I10" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
@@ -2061,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" s="7">
         <v>0</v>
@@ -2072,139 +2114,390 @@
     </row>
     <row r="11" s="8" customFormat="1" ht="13.5" spans="1:15">
       <c r="A11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="J11" s="8">
+        <v>13</v>
+      </c>
+      <c r="K11" s="8">
+        <v>2</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>1</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>1</v>
+      <c r="D12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="13" s="9" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="B13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="9" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="9" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="6">
         <v>3</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G16" s="6">
         <v>2</v>
       </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
         <v>3</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N16" s="6">
         <v>2</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O16" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="5">
+    <row r="17" s="6" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="6">
         <v>3</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G17" s="6">
         <v>2</v>
       </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
         <v>3</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N17" s="6">
         <v>2</v>
       </c>
-      <c r="O13" s="5">
-        <v>0</v>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="9">
+        <v>13</v>
+      </c>
+      <c r="K18" s="9">
+        <v>2</v>
+      </c>
+      <c r="L18" s="9">
+        <v>3</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="9" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="9">
+        <v>13</v>
+      </c>
+      <c r="K19" s="9">
+        <v>2</v>
+      </c>
+      <c r="L19" s="9">
+        <v>3</v>
+      </c>
+      <c r="M19" s="9">
+        <v>1</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A12">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9 A14:A65425">
+  <conditionalFormatting sqref="A11 A20:A65429">
     <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Resource/excel/框架-条件定义.xlsx
+++ b/Resource/excel/框架-条件定义.xlsx
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>*dark_config</t>
   </si>
@@ -530,6 +530,135 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -539,141 +668,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -748,49 +748,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,84 +904,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -887,30 +911,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +943,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,17 +963,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,22 +1002,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,15 +1036,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1044,7 +1044,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1056,7 +1056,7 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,128 +1065,128 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1205,9 +1205,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1231,9 +1228,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1674,29 +1668,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="57.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="10"/>
-    <col min="5" max="5" width="18.25" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="10" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="10" customWidth="1"/>
-    <col min="11" max="12" width="19.375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="13.75" style="10" customWidth="1"/>
-    <col min="15" max="15" width="15" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="20.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="57.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="9"/>
+    <col min="5" max="5" width="18.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="9" customWidth="1"/>
+    <col min="11" max="12" width="19.375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="9" customWidth="1"/>
+    <col min="15" max="15" width="15" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="13.5" spans="1:11">
@@ -1709,9 +1703,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="13.5" spans="1:15">
       <c r="A2" s="2" t="s">
@@ -1794,13 +1788,13 @@
       <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="14">
-        <v>1</v>
-      </c>
-      <c r="M3" s="14">
-        <v>1</v>
-      </c>
-      <c r="N3" s="14">
+      <c r="L3" s="13">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13">
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
         <v>1</v>
       </c>
       <c r="O3" s="3">
@@ -1873,7 +1867,7 @@
       <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="5">
@@ -1895,44 +1889,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A6" s="6" t="s">
+    <row r="6" s="5" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>3</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1955,7 +1949,7 @@
       <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="5">
@@ -1977,519 +1971,475 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="5" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>3</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="6" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>3</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>2</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17" t="s">
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
         <v>3</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>2</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="6" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>3</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
         <v>3</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>2</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A11" s="8" t="s">
+    <row r="11" s="7" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="18" t="s">
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>13</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>2</v>
       </c>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="8">
-        <v>1</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A12" s="8" t="s">
+    <row r="12" s="7" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>3</v>
       </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18" t="s">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>1</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="8">
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A13" s="9" t="s">
+    <row r="13" s="8" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="19" t="s">
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>1</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A14" s="9" t="s">
+    <row r="14" s="8" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="19" t="s">
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>1</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="9" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A15" s="9" t="s">
+    <row r="15" s="8" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19" t="s">
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>1</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A16" s="6" t="s">
+    <row r="16" s="5" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>3</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>2</v>
       </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="16" t="s">
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
         <v>3</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>2</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A17" s="6" t="s">
+    <row r="17" s="5" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>3</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>2</v>
       </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="16" t="s">
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
         <v>3</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>2</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A18" s="9" t="s">
+    <row r="18" s="8" customFormat="1" ht="13.5" spans="1:15">
+      <c r="A18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="F18" s="8">
+        <v>3</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="8">
         <v>13</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>2</v>
       </c>
-      <c r="L18" s="9">
-        <v>3</v>
-      </c>
-      <c r="M18" s="9">
-        <v>1</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" s="9" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="9">
-        <v>3</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="9">
-        <v>13</v>
-      </c>
-      <c r="K19" s="9">
-        <v>2</v>
-      </c>
-      <c r="L19" s="9">
-        <v>3</v>
-      </c>
-      <c r="M19" s="9">
-        <v>1</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
+      <c r="L18" s="8">
+        <v>4</v>
+      </c>
+      <c r="M18" s="8">
+        <v>1</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2497,7 +2447,7 @@
   <conditionalFormatting sqref="A12">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11 A20:A65429">
+  <conditionalFormatting sqref="A11 A19:A65428">
     <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
